--- a/medicine/Enfance/Satomi_Ichikawa/Satomi_Ichikawa.xlsx
+++ b/medicine/Enfance/Satomi_Ichikawa/Satomi_Ichikawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Satomi Ichikawa (市川 里美, Ichikawa Satomi?), née le 15 janvier 1949 à Gifu est une illustratrice et auteure de littérature de jeunesse japonaise. Elle a gagné de nombreux prix en reconnaissance de son travail.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Satomi Ichikawa s’installe à Paris en décembre 1971 à l'âge de vingt-deux ans, après avoir obtenu son diplôme universitaire au Japon, mais sans emploi et sans savoir parler un mot de français. Elle occupe un emploi de fille au pair auprès d'enfants tout en étudiant la langue.
-Elle n'a alors aucune expérience artistique, mais commence à dessiner immédiatement après avoir vu une œuvre du peintre Louis-Maurice Boutet de Monvel (1850-1913) dans la vitrine d’une librairie[1].
-Dans une interview de 2020 au magazine français Télérama[2], elle se souvient avec émerveillement de son arrivée à Paris : 
+Elle n'a alors aucune expérience artistique, mais commence à dessiner immédiatement après avoir vu une œuvre du peintre Louis-Maurice Boutet de Monvel (1850-1913) dans la vitrine d’une librairie.
+Dans une interview de 2020 au magazine français Télérama, elle se souvient avec émerveillement de son arrivée à Paris : 
 « Woah ! Le premier jour, je me suis dit : Je reste, à tout prix ! Les toits avec les cheminées ! Les vieux bâtiments, les rues ! Encore aujourd'hui, je suis émerveillée par tant de beauté chaque jour. »
 À la recherche d'un emploi pour financer sa détermination à rester à Paris, lors de vacances à Londres, elle visite une librairie et copie les noms et adresses des maisons d'édition populaires de livres pour enfants. Son premier titre original a été publié par l'éditeur britannique Heinemann en 1975.
-En 2022, elle continue à créer des livres originaux pour enfants depuis sa maison d'édition parisienne[3]. Beaucoup de ses titres incluent des représentations de deux de ses plus grands hobbies : la danse et la collection de poupées.
+En 2022, elle continue à créer des livres originaux pour enfants depuis sa maison d'édition parisienne. Beaucoup de ses titres incluent des représentations de deux de ses plus grands hobbies : la danse et la collection de poupées.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Suzette et Nicolas dans leur jardin, Paris, Éditions Gautier-Languereau, 1976
 Suzette et Nicolas au marché, Paris, Éditions Gautier-Languereau, 1977
@@ -625,19 +641,21 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1978 : Kodansha Prize – Poems of Spring (1977), Kodansha, Japon.
-1978 :  Foire du livre de jeunesse de Bologne[4] : Mention, pour Suzette et Nicolas au marché
+1978 :  Foire du livre de jeunesse de Bologne : Mention, pour Suzette et Nicolas au marché
 1981 : Art Award – Keep Running, Allen! (1978), Sankei Children's Book Award.
 1989 : Notable Book Award (en) – Danse, Tanya (1989), Association for Library Service to Children (en), American Library Association.
-1992 : Selection Award – Bravo, Tanya (1992), Cooperative Children's Book Center, University of Wisconsin–Madison[5].
-2003 : Selection Award – Mon cochon Amarillo. Une histoire du Guatemala (2002), Lasting Connections, American Library Association[6].
-2005 : Selection Award – La La Rose (2004), Cooperative Children's Book Center, University of Wisconsin–Madison[5].
-2007 : Selection Award – Le Magasin de mon père (2006), Cooperative Children's Book Center, University of Wisconsin–Madison[5].
-2007 : Grades K-2 Selection Award – Le Magasin de mon père (2006), Outstanding International Books, United States Board on Books for Young People (en)[7].
-2007 : Honor – Le Magasin de mon père (2006), Children's Africana Book Awards, Africa Access[8].
-2014 : Selection Award – Mon plus beau cadeau, c’est toi ! (2001), El día de los niños/El día de los libros, Association for Library Service to Children[9].</t>
+1992 : Selection Award – Bravo, Tanya (1992), Cooperative Children's Book Center, University of Wisconsin–Madison.
+2003 : Selection Award – Mon cochon Amarillo. Une histoire du Guatemala (2002), Lasting Connections, American Library Association.
+2005 : Selection Award – La La Rose (2004), Cooperative Children's Book Center, University of Wisconsin–Madison.
+2007 : Selection Award – Le Magasin de mon père (2006), Cooperative Children's Book Center, University of Wisconsin–Madison.
+2007 : Grades K-2 Selection Award – Le Magasin de mon père (2006), Outstanding International Books, United States Board on Books for Young People (en).
+2007 : Honor – Le Magasin de mon père (2006), Children's Africana Book Awards, Africa Access.
+2014 : Selection Award – Mon plus beau cadeau, c’est toi ! (2001), El día de los niños/El día de los libros, Association for Library Service to Children.</t>
         </is>
       </c>
     </row>
